--- a/Team.xlsx
+++ b/Team.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t xml:space="preserve">Team</t>
   </si>
@@ -101,16 +101,56 @@
     <t xml:space="preserve">Supporting Characters</t>
   </si>
   <si>
-    <t xml:space="preserve">TV Reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrator 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrator 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrator 3</t>
+    <t xml:space="preserve">Narrates over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV Reporter/Muse 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skye Szal (tentative)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Iustus, Gairdener, Elizabeth, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Céilidh</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Healer/Muse 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Baptiste (tentative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Gwilym and Kayleigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturalist/Muse 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Ifan, Azer, and Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solder/Muse 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becky Nguyen(tentative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphne and Izzy</t>
   </si>
   <si>
     <t xml:space="preserve">Niall</t>
@@ -141,11 +181,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,9 +210,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -219,7 +274,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,6 +284,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,10 +315,10 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -266,53 +329,53 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -332,13 +395,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -351,60 +418,60 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -412,66 +479,90 @@
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>26</v>
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>27</v>
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>28</v>
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>30</v>
+      <c r="A21" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>31</v>
+      <c r="A22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>32</v>
+      <c r="A23" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>33</v>
+      <c r="A24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>34</v>
+      <c r="A25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>35</v>
+      <c r="A26" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>36</v>
+      <c r="A27" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Main Team" sheetId="1" state="visible" r:id="rId2"/>
@@ -107,26 +107,10 @@
     <t xml:space="preserve">TV Reporter/Muse 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Skye Szal (tentative)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Iustus, Gairdener, Elizabeth, and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Céilidh</t>
-    </r>
+    <t xml:space="preserve">Skye Szal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iustus, Gairdener, Elizabeth, and Céilidh</t>
   </si>
   <si>
     <t xml:space="preserve">Healer/Muse 2</t>
@@ -181,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,11 +209,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -314,11 +293,11 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -397,11 +376,11 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t xml:space="preserve">Team</t>
   </si>
@@ -53,12 +53,24 @@
     <t xml:space="preserve">Justice Graves</t>
   </si>
   <si>
+    <t xml:space="preserve">Skye Szal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chief 3D</t>
   </si>
   <si>
+    <t xml:space="preserve">Adam Petti</t>
+  </si>
+  <si>
     <t xml:space="preserve">Becky Nguyen</t>
   </si>
   <si>
+    <t xml:space="preserve">Editors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliana Selser</t>
+  </si>
+  <si>
     <t xml:space="preserve">Character Voices</t>
   </si>
   <si>
@@ -98,21 +110,36 @@
     <t xml:space="preserve">Daphne</t>
   </si>
   <si>
+    <t xml:space="preserve">Daphne Naut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antagonists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gods</t>
+  </si>
+  <si>
     <t xml:space="preserve">Supporting Characters</t>
   </si>
   <si>
     <t xml:space="preserve">Narrates over</t>
   </si>
   <si>
+    <t xml:space="preserve">Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella</t>
+  </si>
+  <si>
     <t xml:space="preserve">TV Reporter/Muse 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Skye Szal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iustus, Gairdener, Elizabeth, and Céilidh</t>
   </si>
   <si>
+    <t xml:space="preserve">Boston</t>
+  </si>
+  <si>
     <t xml:space="preserve">Healer/Muse 2</t>
   </si>
   <si>
@@ -122,16 +149,22 @@
     <t xml:space="preserve">** Gwilym and Kayleigh</t>
   </si>
   <si>
+    <t xml:space="preserve">Iohannes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naturalist/Muse 3</t>
   </si>
   <si>
     <t xml:space="preserve">** Ifan, Azer, and Daniel</t>
   </si>
   <si>
-    <t xml:space="preserve">Solder/Muse 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becky Nguyen(tentative)</t>
+    <t xml:space="preserve">Rapture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldier/Muse 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becky Nguyen (tentative)</t>
   </si>
   <si>
     <t xml:space="preserve">Daphne and Izzy</t>
@@ -140,22 +173,16 @@
     <t xml:space="preserve">Niall</t>
   </si>
   <si>
-    <t xml:space="preserve">Mark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston</t>
+    <t xml:space="preserve">TBA</t>
   </si>
   <si>
     <t xml:space="preserve">Yehonatan</t>
   </si>
   <si>
-    <t xml:space="preserve">Iohannes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabella</t>
+    <t xml:space="preserve">Yamari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalima (tentative)</t>
   </si>
 </sst>
 </file>
@@ -291,13 +318,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -320,10 +347,12 @@
       <c r="M3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -334,8 +363,11 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
@@ -352,10 +384,23 @@
       <c r="Q4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="T4" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -374,31 +419,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="24.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
@@ -406,136 +451,157 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -21,18 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t xml:space="preserve">Team</t>
   </si>
   <si>
+    <t xml:space="preserve">Project Lead/Publisher – Justice Graves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Director – Hunter Graves</t>
+  </si>
+  <si>
     <t xml:space="preserve">Writers</t>
   </si>
   <si>
     <t xml:space="preserve">Creative</t>
   </si>
   <si>
-    <t xml:space="preserve">Art</t>
+    <t xml:space="preserve">3D Art</t>
   </si>
   <si>
     <t xml:space="preserve">Animation</t>
@@ -53,34 +59,91 @@
     <t xml:space="preserve">Justice Graves</t>
   </si>
   <si>
+    <t xml:space="preserve">Director</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skye Szal</t>
   </si>
   <si>
-    <t xml:space="preserve">Chief 3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adam Petti</t>
   </si>
   <si>
     <t xml:space="preserve">Becky Nguyen</t>
   </si>
   <si>
-    <t xml:space="preserve">Editors</t>
+    <t xml:space="preserve">Associate Director</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter Graves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featured Artists:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bri-C (Brian Cherenfant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editors/Consultants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A (Slot 2)</t>
   </si>
   <si>
     <t xml:space="preserve">Juliana Selser</t>
   </si>
   <si>
+    <t xml:space="preserve">N/A (Slot 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Baptiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A (Slot 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Andrews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella Giesing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language Consultants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphne Naut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Spanish, French, German, and Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient/Middle Latin, Ancient/Attic/Modern Greek &amp; Language Forms and Transforms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Character Voices</t>
   </si>
   <si>
     <t xml:space="preserve">Main Characters</t>
   </si>
   <si>
+    <t xml:space="preserve">Actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personality/Arch</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iustus</t>
   </si>
   <si>
-    <t xml:space="preserve">Gairdener</t>
+    <t xml:space="preserve">INFJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTP</t>
   </si>
   <si>
     <t xml:space="preserve">Elizabeth</t>
@@ -92,10 +155,10 @@
     <t xml:space="preserve">Daniel</t>
   </si>
   <si>
-    <t xml:space="preserve">Ifan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azer</t>
+    <t xml:space="preserve">Kalima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avalon</t>
   </si>
   <si>
     <t xml:space="preserve">Kayleigh</t>
@@ -107,10 +170,19 @@
     <t xml:space="preserve">Izzy</t>
   </si>
   <si>
+    <t xml:space="preserve">ISTJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daphne</t>
   </si>
   <si>
-    <t xml:space="preserve">Daphne Naut</t>
+    <t xml:space="preserve">INTJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrates over</t>
   </si>
   <si>
     <t xml:space="preserve">Antagonists</t>
@@ -119,10 +191,10 @@
     <t xml:space="preserve">Gods</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting Characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrates over</t>
+    <t xml:space="preserve">TV Reporter/Muse 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iustus, Hunter, Elizabeth, and Céilidh</t>
   </si>
   <si>
     <t xml:space="preserve">Mark</t>
@@ -131,58 +203,55 @@
     <t xml:space="preserve">Isabella</t>
   </si>
   <si>
-    <t xml:space="preserve">TV Reporter/Muse 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iustus, Gairdener, Elizabeth, and Céilidh</t>
+    <t xml:space="preserve">Healer/Muse 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanda Baptiste (tentative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Gwilym and Kayleigh</t>
   </si>
   <si>
     <t xml:space="preserve">Boston</t>
   </si>
   <si>
-    <t xml:space="preserve">Healer/Muse 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amanda Baptiste (tentative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Gwilym and Kayleigh</t>
+    <t xml:space="preserve">Naturalist/Muse 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** Kalima, Avalon, and Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">Iohannes</t>
   </si>
   <si>
-    <t xml:space="preserve">Naturalist/Muse 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** Ifan, Azer, and Daniel</t>
+    <t xml:space="preserve">Soldier/Muse 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becky Nguyen (tentative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daphne and Izzy</t>
   </si>
   <si>
     <t xml:space="preserve">Rapture</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldier/Muse 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becky Nguyen (tentative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daphne and Izzy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Niall</t>
   </si>
   <si>
+    <t xml:space="preserve">Amadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yehonatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamari</t>
+  </si>
+  <si>
     <t xml:space="preserve">TBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yehonatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalima (tentative)</t>
   </si>
 </sst>
 </file>
@@ -289,11 +358,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,89 +387,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>15</v>
+      <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -419,189 +568,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="24.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
+      <c r="A6" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
+      <c r="A7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
+      <c r="A8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
+      <c r="A9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
+      <c r="A10" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
+      <c r="A11" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
+      <c r="A12" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="2" t="s">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>31</v>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
+      <c r="A16" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>38</v>
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>42</v>
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>45</v>
+      <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
+      <c r="A21" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>50</v>
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>51</v>
+      <c r="A23" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>52</v>
+      <c r="A24" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
+      <c r="A25" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
